--- a/data_jul4/Optimized_Bundles.xlsx
+++ b/data_jul4/Optimized_Bundles.xlsx
@@ -156,8 +156,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="OptimizedBundlesTable" displayName="OptimizedBundlesTable" ref="A1:AC65" headerRowCount="1">
-  <autoFilter ref="A1:AC65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="OptimizedBundlesTable" displayName="OptimizedBundlesTable" ref="A1:AC55" headerRowCount="1">
+  <autoFilter ref="A1:AC55"/>
   <tableColumns count="29">
     <tableColumn id="1" name="OrderType"/>
     <tableColumn id="2" name="OrderNbr"/>
@@ -395,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC65"/>
+  <dimension ref="A1:AC55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,36 +557,48 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1012429</v>
+        <v>1013075</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6VR.289.B15LT</t>
+          <t>TUP.70600</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>8</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-      <c r="I2" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7340</v>
-      </c>
-      <c r="L2" t="n">
-        <v>258.5228163265306</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -595,22 +607,32 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6" V-Groove - Rib 24 feet Base Paint Premium Decoral Light Beige</t>
+          <t>Touch Up Pen Touch Up Pen for Dark Antique Oak &amp; Dark Bamboo Finishes</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Mayne Coatings - SALES</t>
+          <t>Hamilton County Readiness Center</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sales Account</t>
+          <t>2600 E 276th Street</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>IN</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -620,17 +642,17 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -640,12 +662,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -656,36 +678,48 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1012429</v>
+        <v>1013075</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6V.145.B15LT</t>
+          <t>TUP.10500</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>8</v>
-      </c>
-      <c r="H3" t="n">
-        <v>16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>139.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7340</v>
-      </c>
-      <c r="L3" t="n">
-        <v>258.5228163265306</v>
+        <v>3</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -694,22 +728,32 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>6" V-Groove 12 feet Base Paint Premium Decoral Light Beige</t>
+          <t>Touch Up Pen for Light Bamboo &amp; Light Oak Finishes</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Mayne Coatings - SALES</t>
+          <t>Hamilton County Readiness Center</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Sales Account</t>
+          <t>2600 E 276th Street</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>IN</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -719,17 +763,17 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -739,12 +783,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -755,60 +799,70 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1012429</v>
+        <v>1013075</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6V.145.B15LT_Partial</t>
+          <t>6PSP.289.15LBB</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="I4" t="n">
-        <v>177.8</v>
+        <v>469.9</v>
       </c>
       <c r="J4" t="n">
-        <v>139.7</v>
+        <v>435.61</v>
       </c>
       <c r="K4" t="n">
         <v>7340</v>
       </c>
       <c r="L4" t="n">
-        <v>258.5228163265306</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BOX8</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>6" V-Groove 12 feet Base Paint Premium Decoral Light Beige</t>
+          <t>6" Smooth Plank 24 feet (Premium Light Bamboo) Box of 8</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Mayne Coatings - SALES</t>
+          <t>Hamilton County Readiness Center</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Sales Account</t>
+          <t>2600 E 276th Street</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>IN</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -818,17 +872,17 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -838,12 +892,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -854,36 +908,36 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1012429</v>
+        <v>1013075</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6VR.289.B15LT_Partial</t>
+          <t>2SS.145.15LBB</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I5" t="n">
-        <v>177.8</v>
+        <v>469.9</v>
       </c>
       <c r="J5" t="n">
-        <v>139.7</v>
+        <v>435.61</v>
       </c>
       <c r="K5" t="n">
         <v>7340</v>
       </c>
       <c r="L5" t="n">
-        <v>258.5228163265306</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -892,22 +946,32 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>6" V-Groove - Rib 24 feet Base Paint Premium Decoral Light Beige</t>
+          <t>1-7/8" Starter Strip (Slotted) 12 feet (Premium Light Bamboo)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Mayne Coatings - SALES</t>
+          <t>Hamilton County Readiness Center</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Sales Account</t>
+          <t>2600 E 276th Street</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>IN</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -917,17 +981,17 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -937,52 +1001,52 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="6" outlineLevel="2" s="8">
+    <row r="6" outlineLevel="1" s="8">
       <c r="A6" t="inlineStr">
         <is>
           <t>SO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1012429</v>
+        <v>1013075</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pack_Angle</t>
+          <t>2COR1.145.15LBB</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
         <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="I6" t="n">
-        <v>177.8</v>
+        <v>469.9</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7</v>
+        <v>435.61</v>
       </c>
       <c r="K6" t="n">
         <v>7340</v>
       </c>
       <c r="L6" t="n">
-        <v>258.5228163265306</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -991,22 +1055,32 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>PRINTED ANGLEBOARD 7340mm</t>
+          <t>2" Two Piece Corner - 2CORS - Component 1 12 feet (Premium Light Bamboo)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Mayne Coatings - SALES</t>
+          <t>Hamilton County Readiness Center</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Sales Account</t>
+          <t>2600 E 276th Street</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>IN</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1016,17 +1090,17 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1036,30 +1110,30 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="7" outlineLevel="2" s="8">
+    <row r="7" outlineLevel="1" s="8">
       <c r="A7" t="inlineStr">
         <is>
           <t>SO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1012429</v>
+        <v>1013075</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun</t>
+          <t>6PSP.289.15DBB_Partial</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1072,40 +1146,50 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>177.8</v>
+        <v>469.9</v>
       </c>
       <c r="J7" t="n">
-        <v>139.7</v>
+        <v>435.61</v>
       </c>
       <c r="K7" t="n">
         <v>7340</v>
       </c>
       <c r="L7" t="n">
-        <v>258.5228163265306</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BOX8</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE 7340mm</t>
+          <t>6" Smooth Plank 24 feet (Premium Dark Bamboo) Box of 8</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Mayne Coatings - SALES</t>
+          <t>Hamilton County Readiness Center</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Sales Account</t>
+          <t>2600 E 276th Street</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>IN</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1115,17 +1199,17 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1135,30 +1219,30 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="8" outlineLevel="2" s="8">
+    <row r="8" outlineLevel="1" s="8">
       <c r="A8" t="inlineStr">
         <is>
           <t>SO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1012429</v>
+        <v>1013075</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun</t>
+          <t>6PSP.289.15LBB_Partial</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1171,40 +1255,50 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>177.8</v>
+        <v>469.9</v>
       </c>
       <c r="J8" t="n">
-        <v>139.7</v>
+        <v>435.61</v>
       </c>
       <c r="K8" t="n">
         <v>7340</v>
       </c>
       <c r="L8" t="n">
-        <v>258.5228163265306</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BOX8</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE 7340mm</t>
+          <t>6" Smooth Plank 24 feet (Premium Light Bamboo) Box of 8</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Mayne Coatings - SALES</t>
+          <t>Hamilton County Readiness Center</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Sales Account</t>
+          <t>2600 E 276th Street</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>IN</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1214,17 +1308,17 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1234,52 +1328,52 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="9" outlineLevel="2" s="8">
+    <row r="9" outlineLevel="1" s="8">
       <c r="A9" t="inlineStr">
         <is>
           <t>SO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1012429</v>
+        <v>1013075</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bundl_Wrp_7340</t>
+          <t>2COR2.145.15LBB</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="I9" t="n">
-        <v>177.8</v>
+        <v>469.9</v>
       </c>
       <c r="J9" t="n">
-        <v>139.7</v>
+        <v>435.61</v>
       </c>
       <c r="K9" t="n">
         <v>7340</v>
       </c>
       <c r="L9" t="n">
-        <v>258.5228163265306</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1288,22 +1382,32 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 7340mm</t>
+          <t>2" Two Piece Corner - 2CORS - Component 2 12 feet (Premium Light Bamboo)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Mayne Coatings - SALES</t>
+          <t>Hamilton County Readiness Center</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Sales Account</t>
+          <t>2600 E 276th Street</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>IN</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1313,17 +1417,17 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1333,52 +1437,52 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="10" outlineLevel="2" s="8">
+    <row r="10" outlineLevel="1" s="8">
       <c r="A10" t="inlineStr">
         <is>
           <t>SO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1012429</v>
+        <v>1013075</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bundl_Wrp_7340</t>
+          <t>2COR1.145.15LBB_Partial</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>177.8</v>
+        <v>469.9</v>
       </c>
       <c r="J10" t="n">
-        <v>139.7</v>
+        <v>435.61</v>
       </c>
       <c r="K10" t="n">
         <v>7340</v>
       </c>
       <c r="L10" t="n">
-        <v>258.5228163265306</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1387,22 +1491,32 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap 7340mm</t>
+          <t>2" Two Piece Corner - 2CORS - Component 1 12 feet (Premium Light Bamboo)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Mayne Coatings - SALES</t>
+          <t>Hamilton County Readiness Center</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Sales Account</t>
+          <t>2600 E 276th Street</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>IN</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1412,17 +1526,17 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1432,52 +1546,52 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="11" outlineLevel="2" s="8">
+    <row r="11" outlineLevel="1" s="8">
       <c r="A11" t="inlineStr">
         <is>
           <t>SO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1012429</v>
+        <v>1013075</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pack_Pad_8_7340</t>
+          <t>1TJT.145.15LBB</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
-        <v>177.8</v>
+        <v>469.9</v>
       </c>
       <c r="J11" t="n">
-        <v>139.7</v>
+        <v>435.61</v>
       </c>
       <c r="K11" t="n">
         <v>7340</v>
       </c>
       <c r="L11" t="n">
-        <v>258.5228163265306</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1486,22 +1600,32 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>PAD - 8-1/2" X 144" DW ECT #3 WHITE 7340mm</t>
+          <t>1" Base - 1X1JT / 1X2JT / JT23S - Component 2 12 feet (Premium Light Bamboo)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Mayne Coatings - SALES</t>
+          <t>Hamilton County Readiness Center</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Sales Account</t>
+          <t>2600 E 276th Street</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>IN</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1511,17 +1635,17 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1531,12 +1655,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -1547,36 +1671,36 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1012429</v>
+        <v>1013075</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun_Lumber_7340</t>
+          <t>1JT.145.15LBB</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="I12" t="n">
-        <v>177.8</v>
+        <v>469.9</v>
       </c>
       <c r="J12" t="n">
-        <v>139.7</v>
+        <v>435.61</v>
       </c>
       <c r="K12" t="n">
         <v>7340</v>
       </c>
       <c r="L12" t="n">
-        <v>258.5228163265306</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1585,22 +1709,32 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>COMMON LUMBER - 1" X 4" X 12" 7340mm</t>
+          <t>5/8" J-Track 12 feet (Premium Light Bamboo)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Mayne Coatings - SALES</t>
+          <t>Hamilton County Readiness Center</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Sales Account</t>
+          <t>2600 E 276th Street</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>IN</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1610,17 +1744,17 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1630,17 +1764,125 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="13" s="8"/>
-    <row r="14" s="8">
+    <row r="13" outlineLevel="1" s="8">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1013075</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1SJT.145.15LBB</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" t="n">
+        <v>180</v>
+      </c>
+      <c r="I13" t="n">
+        <v>469.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>435.61</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7340</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2089.615623582766</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>5/8" Starter J-Track 12 feet (Premium Light Bamboo)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Hamilton County Readiness Center</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2600 E 276th Street</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Shipping</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>COMMONCARRIER</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" outlineLevel="1" s="8">
       <c r="A14" t="inlineStr">
         <is>
           <t>SO</t>
@@ -1650,54 +1892,42 @@
         <v>1013075</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TUP.70600</t>
+          <t>6PSPP.289.15LBB_Partial</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>469.9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>435.61</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7340</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2089.615623582766</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BOX8</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Touch Up Pen Touch Up Pen for Dark Antique Oak &amp; Dark Bamboo Finishes</t>
+          <t>6" Smooth Plank Perforated 24 feet (Premium Light Bamboo) Box of 8</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1757,7 +1987,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -1771,45 +2001,33 @@
         <v>1013075</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TUP.10500</t>
+          <t>1JTC.145.15LBB</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>20</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>469.9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>435.61</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7340</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2089.615623582766</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1818,7 +2036,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Touch Up Pen for Light Bamboo &amp; Light Oak Finishes</t>
+          <t>5/8" Cap - 1X1JT / 1TS - Component 1 12 feet (Premium Light Bamboo)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1878,7 +2096,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -1896,38 +2114,38 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CLIP.N1500</t>
+          <t>2SS.145.15LBB_Partial</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>7.999999999999998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>7.999999999999998</v>
       </c>
       <c r="I16" t="n">
-        <v>207.48</v>
+        <v>469.9</v>
       </c>
       <c r="J16" t="n">
-        <v>165.1</v>
+        <v>435.61</v>
       </c>
       <c r="K16" t="n">
-        <v>3680</v>
+        <v>7340</v>
       </c>
       <c r="L16" t="n">
-        <v>33.38999546485261</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>BX1500</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Quick Screen Clips (Stainless Steel) Box of 1500</t>
+          <t>1-7/8" Starter Strip (Slotted) 12 feet (Premium Light Bamboo)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1987,7 +2205,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -2005,38 +2223,38 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pack_62Filler</t>
+          <t>2COR2.145.15LBB_Partial</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>207.48</v>
+        <v>469.9</v>
       </c>
       <c r="J17" t="n">
-        <v>165.1</v>
+        <v>435.61</v>
       </c>
       <c r="K17" t="n">
-        <v>3680</v>
+        <v>7340</v>
       </c>
       <c r="L17" t="n">
-        <v>33.38999546485261</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>BX1500</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Pack 62 Filler Material</t>
+          <t>2" Two Piece Corner - 2CORS - Component 2 12 feet (Premium Light Bamboo)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2096,7 +2314,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -2114,29 +2332,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TGBJKIT_Partial</t>
+          <t>1JT.145.15LBB_Partial</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>5.999999999999996</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>5.999999999999996</v>
       </c>
       <c r="I18" t="n">
-        <v>207.48</v>
+        <v>469.9</v>
       </c>
       <c r="J18" t="n">
-        <v>165.1</v>
+        <v>435.61</v>
       </c>
       <c r="K18" t="n">
-        <v>3680</v>
+        <v>7340</v>
       </c>
       <c r="L18" t="n">
-        <v>33.38999546485261</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -2145,7 +2363,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Tongue &amp; Groove Butt-Joint Fastening Kit</t>
+          <t>5/8" J-Track 12 feet (Premium Light Bamboo)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2205,11 +2423,11 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="19" outlineLevel="2" s="8">
+    <row r="19" outlineLevel="1" s="8">
       <c r="A19" t="inlineStr">
         <is>
           <t>SO</t>
@@ -2223,38 +2441,38 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pack_Angle</t>
+          <t>2FR.145.15LBB_Partial</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>207.48</v>
+        <v>469.9</v>
       </c>
       <c r="J19" t="n">
-        <v>165.1</v>
+        <v>435.61</v>
       </c>
       <c r="K19" t="n">
-        <v>3680</v>
+        <v>7340</v>
       </c>
       <c r="L19" t="n">
-        <v>33.38999546485261</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>BX1500</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>PRINTED ANGLEBOARD 3680mm</t>
+          <t>1-1/2" Flat Reveal - 2FRS - Component 2 12 feet (Premium Light Bamboo)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2314,11 +2532,11 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="20" outlineLevel="2" s="8">
+    <row r="20" outlineLevel="1" s="8">
       <c r="A20" t="inlineStr">
         <is>
           <t>SO</t>
@@ -2332,7 +2550,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pack_1x4x19_Dun</t>
+          <t>2OFFC.145.15LBB_Partial</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2345,25 +2563,25 @@
         <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>207.48</v>
+        <v>469.9</v>
       </c>
       <c r="J20" t="n">
-        <v>165.1</v>
+        <v>435.61</v>
       </c>
       <c r="K20" t="n">
-        <v>3680</v>
+        <v>7340</v>
       </c>
       <c r="L20" t="n">
-        <v>33.38999546485261</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>BX1500</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
+          <t>2" Offset Flat Reveal Cap - 2OFFT / 2OFFJ 12 feet (Premium Light Bamboo)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2423,11 +2641,11 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="21" outlineLevel="2" s="8">
+    <row r="21" outlineLevel="1" s="8">
       <c r="A21" t="inlineStr">
         <is>
           <t>SO</t>
@@ -2441,38 +2659,38 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pack_2x3x19_Dun</t>
+          <t>1SJT.145.15LBB_Partial</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1.999999999999993</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1.999999999999993</v>
       </c>
       <c r="I21" t="n">
-        <v>207.48</v>
+        <v>469.9</v>
       </c>
       <c r="J21" t="n">
-        <v>165.1</v>
+        <v>435.61</v>
       </c>
       <c r="K21" t="n">
-        <v>3680</v>
+        <v>7340</v>
       </c>
       <c r="L21" t="n">
-        <v>33.38999546485261</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>BX1500</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
+          <t>5/8" Starter J-Track 12 feet (Premium Light Bamboo)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2532,11 +2750,11 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="22" outlineLevel="2" s="8">
+    <row r="22" outlineLevel="1" s="8">
       <c r="A22" t="inlineStr">
         <is>
           <t>SO</t>
@@ -2550,38 +2768,38 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pack_Sub_Bundl_Wrp_3680</t>
+          <t>1TJT.145.15LBB_Partial</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>207.48</v>
+        <v>469.9</v>
       </c>
       <c r="J22" t="n">
-        <v>165.1</v>
+        <v>435.61</v>
       </c>
       <c r="K22" t="n">
-        <v>3680</v>
+        <v>7340</v>
       </c>
       <c r="L22" t="n">
-        <v>33.38999546485261</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>BX1500</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
+          <t>1" Base - 1X1JT / 1X2JT / JT23S - Component 2 12 feet (Premium Light Bamboo)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2641,11 +2859,11 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="23" outlineLevel="2" s="8">
+    <row r="23" outlineLevel="1" s="8">
       <c r="A23" t="inlineStr">
         <is>
           <t>SO</t>
@@ -2659,38 +2877,38 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pack_Mst_Bundl_Wrp_3680</t>
+          <t>1JTC.145.15LBB_Partial</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1.999999999999993</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1.999999999999993</v>
       </c>
       <c r="I23" t="n">
-        <v>207.48</v>
+        <v>469.9</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1</v>
+        <v>435.61</v>
       </c>
       <c r="K23" t="n">
-        <v>3680</v>
+        <v>7340</v>
       </c>
       <c r="L23" t="n">
-        <v>33.38999546485261</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>BX1500</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Master Bundle - Stretch Wrap 3680mm</t>
+          <t>5/8" Cap - 1X1JT / 1TS - Component 1 12 feet (Premium Light Bamboo)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2750,11 +2968,11 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="24" outlineLevel="1" s="8">
+    <row r="24" outlineLevel="2" s="8">
       <c r="A24" t="inlineStr">
         <is>
           <t>SO</t>
@@ -2768,38 +2986,38 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pack_Pad_8_3600</t>
+          <t>Pack_Angle</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I24" t="n">
-        <v>207.48</v>
+        <v>469.9</v>
       </c>
       <c r="J24" t="n">
-        <v>165.1</v>
+        <v>435.61</v>
       </c>
       <c r="K24" t="n">
-        <v>3680</v>
+        <v>7340</v>
       </c>
       <c r="L24" t="n">
-        <v>33.38999546485261</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>BX1500</t>
+          <t>BOX8</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>PAD - 8-1/2" X 144" DW ECT #3 WHITE 3680mm</t>
+          <t>PRINTED ANGLEBOARD 7340mm</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2859,11 +3077,11 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="25" outlineLevel="1" s="8">
+    <row r="25" outlineLevel="2" s="8">
       <c r="A25" t="inlineStr">
         <is>
           <t>SO</t>
@@ -2873,33 +3091,33 @@
         <v>1013075</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6PSP.289.15LBB</t>
+          <t>Pack_1x4x19_Dun</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>488.9499999999999</v>
+        <v>469.9</v>
       </c>
       <c r="J25" t="n">
-        <v>476.25</v>
+        <v>435.61</v>
       </c>
       <c r="K25" t="n">
         <v>7340</v>
       </c>
       <c r="L25" t="n">
-        <v>2401.951224489796</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2908,7 +3126,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>6" Smooth Plank 24 feet (Premium Light Bamboo) Box of 8</t>
+          <t>1" X 4" X 19" DUNNAGE 7340mm</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2968,11 +3186,11 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="26" outlineLevel="1" s="8">
+    <row r="26" outlineLevel="2" s="8">
       <c r="A26" t="inlineStr">
         <is>
           <t>SO</t>
@@ -2982,42 +3200,42 @@
         <v>1013075</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2SS.145.15LBB</t>
+          <t>Pack_2x3x19_Dun</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>488.9499999999999</v>
+        <v>469.9</v>
       </c>
       <c r="J26" t="n">
-        <v>476.25</v>
+        <v>435.61</v>
       </c>
       <c r="K26" t="n">
         <v>7340</v>
       </c>
       <c r="L26" t="n">
-        <v>2401.951224489796</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BOX8</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1-7/8" Starter Strip (Slotted) 12 feet (Premium Light Bamboo)</t>
+          <t>2" X 3" X 19" DUNNAGE 7340mm</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3077,11 +3295,11 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="27" outlineLevel="1" s="8">
+    <row r="27" outlineLevel="2" s="8">
       <c r="A27" t="inlineStr">
         <is>
           <t>SO</t>
@@ -3091,42 +3309,42 @@
         <v>1013075</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2COR1.145.15DBB</t>
+          <t>Pack_Sub_Bundl_Wrp_7340</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>488.9499999999999</v>
+        <v>469.9</v>
       </c>
       <c r="J27" t="n">
-        <v>476.25</v>
+        <v>435.61</v>
       </c>
       <c r="K27" t="n">
         <v>7340</v>
       </c>
       <c r="L27" t="n">
-        <v>2401.951224489796</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BOX8</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2" Two Piece Corner - 2CORS - Component 1 12 feet (Premium Dark Bamboo)</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 7340mm</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3186,11 +3404,11 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="28" outlineLevel="1" s="8">
+    <row r="28" outlineLevel="2" s="8">
       <c r="A28" t="inlineStr">
         <is>
           <t>SO</t>
@@ -3200,42 +3418,42 @@
         <v>1013075</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2COR1.145.15LBB</t>
+          <t>Pack_Mst_Bundl_Wrp_7340</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>488.9499999999999</v>
+        <v>469.9</v>
       </c>
       <c r="J28" t="n">
-        <v>476.25</v>
+        <v>435.61</v>
       </c>
       <c r="K28" t="n">
         <v>7340</v>
       </c>
       <c r="L28" t="n">
-        <v>2401.951224489796</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BOX8</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2" Two Piece Corner - 2CORS - Component 1 12 feet (Premium Light Bamboo)</t>
+          <t>Master Bundle - Stretch Wrap 7340mm</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3295,7 +3513,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -3309,33 +3527,33 @@
         <v>1013075</v>
       </c>
       <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pack_Pad_19_7340</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
         <v>2</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>6PSP.289.15DBB_Partial</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I29" t="n">
-        <v>488.9499999999999</v>
+        <v>469.9</v>
       </c>
       <c r="J29" t="n">
-        <v>476.25</v>
+        <v>435.61</v>
       </c>
       <c r="K29" t="n">
         <v>7340</v>
       </c>
       <c r="L29" t="n">
-        <v>2401.951224489796</v>
+        <v>2089.615623582766</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3344,7 +3562,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>6" Smooth Plank 24 feet (Premium Dark Bamboo) Box of 8</t>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE 7340mm</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3404,7 +3622,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -3422,38 +3640,38 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6PSP.289.15LBB_Partial</t>
+          <t>CLIP.N1500</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
         <v>1</v>
       </c>
-      <c r="G30" t="n">
-        <v>4</v>
-      </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J30" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K30" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L30" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>BOX8</t>
+          <t>BX1500</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>6" Smooth Plank 24 feet (Premium Light Bamboo) Box of 8</t>
+          <t>Quick Screen Clips (Stainless Steel) Box of 1500</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3513,7 +3731,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -3531,38 +3749,38 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2COR2.145.15DBB</t>
+          <t>Pack_44Filler</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J31" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K31" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L31" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BX1500</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2" Two Piece Corner - 2CORS - Component 2 12 feet (Premium Dark Bamboo)</t>
+          <t>Pack 44 Filler Material</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3622,7 +3840,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -3640,38 +3858,38 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2COR2.145.15LBB</t>
+          <t>Pack_62Filler</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J32" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K32" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L32" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BX1500</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2" Two Piece Corner - 2CORS - Component 2 12 feet (Premium Light Bamboo)</t>
+          <t>Pack 62 Filler Material</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -3731,7 +3949,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -3749,29 +3967,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2COR1.145.15LBB_Partial</t>
+          <t>2COR1.145.15DBB</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I33" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K33" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L33" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3780,7 +3998,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2" Two Piece Corner - 2CORS - Component 1 12 feet (Premium Light Bamboo)</t>
+          <t>2" Two Piece Corner - 2CORS - Component 1 12 feet (Premium Dark Bamboo)</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -3840,7 +4058,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -3858,29 +4076,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1TJT.145.15DBB</t>
+          <t>2COR2.145.15DBB</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I34" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J34" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K34" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L34" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3889,7 +4107,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1" Base - 1X1JT / 1X2JT / JT23S - Component 2 12 feet (Premium Dark Bamboo)</t>
+          <t>2" Two Piece Corner - 2CORS - Component 2 12 feet (Premium Dark Bamboo)</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3949,7 +4167,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -3967,29 +4185,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1JT.145.15DBB</t>
+          <t>1TJT.145.15DBB</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I35" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J35" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K35" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L35" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3998,7 +4216,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>5/8" J-Track 12 feet (Premium Dark Bamboo)</t>
+          <t>1" Base - 1X1JT / 1X2JT / JT23S - Component 2 12 feet (Premium Dark Bamboo)</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -4058,7 +4276,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -4076,29 +4294,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1TJT.145.15LBB</t>
+          <t>1JT.145.15DBB</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I36" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J36" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K36" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L36" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -4107,7 +4325,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>1" Base - 1X1JT / 1X2JT / JT23S - Component 2 12 feet (Premium Light Bamboo)</t>
+          <t>5/8" J-Track 12 feet (Premium Dark Bamboo)</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4167,7 +4385,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -4185,29 +4403,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1JT.145.15LBB</t>
+          <t>2BTBSS.145.15OBL</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
         <v>10</v>
       </c>
       <c r="H37" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I37" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J37" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K37" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L37" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -4216,7 +4434,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>5/8" J-Track 12 feet (Premium Light Bamboo)</t>
+          <t>Back-to-Back Starter Strip 12 feet (Premium Onyx Black)</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -4276,7 +4494,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -4294,29 +4512,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2BTBSS.145.15OBL</t>
+          <t>1SJT.145.15DBB</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
         <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I38" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J38" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K38" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L38" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -4325,7 +4543,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Back-to-Back Starter Strip 12 feet (Premium Onyx Black)</t>
+          <t>5/8" Starter J-Track 12 feet (Premium Dark Bamboo)</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -4385,7 +4603,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -4403,29 +4621,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1SJT.145.15DBB</t>
+          <t>1JTC.145.15DBB</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H39" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I39" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J39" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K39" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L39" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -4434,7 +4652,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>5/8" Starter J-Track 12 feet (Premium Dark Bamboo)</t>
+          <t>5/8" Cap - 1X1JT / 1TS - Component 1 12 feet (Premium Dark Bamboo)</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -4494,7 +4712,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -4512,29 +4730,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1SJT.145.15LBB</t>
+          <t>2COR2.145.15DBB_Partial</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J40" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K40" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L40" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4543,7 +4761,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>5/8" Starter J-Track 12 feet (Premium Light Bamboo)</t>
+          <t>2" Two Piece Corner - 2CORS - Component 2 12 feet (Premium Dark Bamboo)</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -4603,7 +4821,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -4621,38 +4839,38 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6PSPP.289.15LBB_Partial</t>
+          <t>2BA.145.15OBL_Partial</t>
         </is>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J41" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K41" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L41" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>BOX8</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>6" Smooth Plank Perforated 24 feet (Premium Light Bamboo) Box of 8</t>
+          <t>1/2" Base - 2FRS / 2URS - Component 1 12 feet (Premium Onyx Black)</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -4712,7 +4930,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -4730,29 +4948,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1JTC.145.15DBB</t>
+          <t>2COR1.145.15DBB_Partial</t>
         </is>
       </c>
       <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
         <v>2</v>
       </c>
-      <c r="G42" t="n">
-        <v>20</v>
-      </c>
       <c r="H42" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J42" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K42" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L42" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4761,7 +4979,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>5/8" Cap - 1X1JT / 1TS - Component 1 12 feet (Premium Dark Bamboo)</t>
+          <t>2" Two Piece Corner - 2CORS - Component 1 12 feet (Premium Dark Bamboo)</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -4821,7 +5039,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -4839,29 +5057,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1JTC.145.15LBB</t>
+          <t>1JT.145.15DBB_Partial</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J43" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K43" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L43" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4870,7 +5088,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>5/8" Cap - 1X1JT / 1TS - Component 1 12 feet (Premium Light Bamboo)</t>
+          <t>5/8" J-Track 12 feet (Premium Dark Bamboo)</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -4930,7 +5148,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -4948,29 +5166,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2SS.145.15LBB_Partial</t>
+          <t>1SJT.145.15DBB_Partial</t>
         </is>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>7.999999999999998</v>
+        <v>2.999999999999998</v>
       </c>
       <c r="H44" t="n">
-        <v>7.999999999999998</v>
+        <v>2.999999999999998</v>
       </c>
       <c r="I44" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J44" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K44" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L44" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4979,7 +5197,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1-7/8" Starter Strip (Slotted) 12 feet (Premium Light Bamboo)</t>
+          <t>5/8" Starter J-Track 12 feet (Premium Dark Bamboo)</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5039,7 +5257,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5275,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2COR2.145.15DBB_Partial</t>
+          <t>TGBJKIT_Partial</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -5070,16 +5288,16 @@
         <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J45" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K45" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L45" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -5088,7 +5306,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2" Two Piece Corner - 2CORS - Component 2 12 feet (Premium Dark Bamboo)</t>
+          <t>Tongue &amp; Groove Butt-Joint Fastening Kit</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -5148,7 +5366,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -5166,29 +5384,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2BA.145.15OBL_Partial</t>
+          <t>2BTBSS.145.15OBL_Partial</t>
         </is>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J46" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K46" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L46" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -5197,7 +5415,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1/2" Base - 2FRS / 2URS - Component 1 12 feet (Premium Onyx Black)</t>
+          <t>Back-to-Back Starter Strip 12 feet (Premium Onyx Black)</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -5257,7 +5475,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -5275,29 +5493,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2COR2.145.15LBB_Partial</t>
+          <t>1TJT.145.15DBB_Partial</t>
         </is>
       </c>
       <c r="F47" t="n">
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0.9999999999999964</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0.9999999999999964</v>
       </c>
       <c r="I47" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J47" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K47" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L47" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -5306,7 +5524,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2" Two Piece Corner - 2CORS - Component 2 12 feet (Premium Light Bamboo)</t>
+          <t>1" Base - 1X1JT / 1X2JT / JT23S - Component 2 12 feet (Premium Dark Bamboo)</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -5366,7 +5584,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -5384,29 +5602,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1JT.145.15LBB_Partial</t>
+          <t>1JTC.145.15DBB_Partial</t>
         </is>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>5.999999999999996</v>
+        <v>0.9999999999999964</v>
       </c>
       <c r="H48" t="n">
-        <v>5.999999999999996</v>
+        <v>0.9999999999999964</v>
       </c>
       <c r="I48" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J48" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K48" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L48" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -5415,7 +5633,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>5/8" J-Track 12 feet (Premium Light Bamboo)</t>
+          <t>5/8" Cap - 1X1JT / 1TS - Component 1 12 feet (Premium Dark Bamboo)</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -5475,11 +5693,11 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="49" outlineLevel="1" s="8">
+    <row r="49" outlineLevel="2" s="8">
       <c r="A49" t="inlineStr">
         <is>
           <t>SO</t>
@@ -5493,38 +5711,38 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2FR.145.15LBB_Partial</t>
+          <t>Pack_Angle</t>
         </is>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J49" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K49" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L49" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BX1500</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>1-1/2" Flat Reveal - 2FRS - Component 2 12 feet (Premium Light Bamboo)</t>
+          <t>PRINTED ANGLEBOARD 3680mm</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -5584,11 +5802,11 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="50" outlineLevel="1" s="8">
+    <row r="50" outlineLevel="2" s="8">
       <c r="A50" t="inlineStr">
         <is>
           <t>SO</t>
@@ -5602,7 +5820,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2COR1.145.15DBB_Partial</t>
+          <t>Pack_1x4x19_Dun</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -5615,25 +5833,25 @@
         <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J50" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K50" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L50" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BX1500</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2" Two Piece Corner - 2CORS - Component 1 12 feet (Premium Dark Bamboo)</t>
+          <t>1" X 4" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -5693,11 +5911,11 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="51" outlineLevel="1" s="8">
+    <row r="51" outlineLevel="2" s="8">
       <c r="A51" t="inlineStr">
         <is>
           <t>SO</t>
@@ -5711,38 +5929,38 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1JT.145.15DBB_Partial</t>
+          <t>Pack_2x3x19_Dun</t>
         </is>
       </c>
       <c r="F51" t="n">
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J51" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K51" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L51" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BX1500</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>5/8" J-Track 12 feet (Premium Dark Bamboo)</t>
+          <t>2" X 3" X 19" DUNNAGE 3680mm</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -5802,11 +6020,11 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="52" outlineLevel="1" s="8">
+    <row r="52" outlineLevel="2" s="8">
       <c r="A52" t="inlineStr">
         <is>
           <t>SO</t>
@@ -5820,7 +6038,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2OFFC.145.15LBB_Partial</t>
+          <t>Pack_Sub_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -5833,25 +6051,25 @@
         <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J52" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K52" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L52" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BX1500</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2" Offset Flat Reveal Cap - 2OFFT / 2OFFJ 12 feet (Premium Light Bamboo)</t>
+          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 3680mm</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -5911,11 +6129,11 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="53" outlineLevel="1" s="8">
+    <row r="53" outlineLevel="2" s="8">
       <c r="A53" t="inlineStr">
         <is>
           <t>SO</t>
@@ -5929,38 +6147,38 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1SJT.145.15DBB_Partial</t>
+          <t>Pack_Mst_Bundl_Wrp_3680</t>
         </is>
       </c>
       <c r="F53" t="n">
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>2.999999999999998</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>2.999999999999998</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J53" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K53" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L53" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BX1500</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>5/8" Starter J-Track 12 feet (Premium Dark Bamboo)</t>
+          <t>Master Bundle - Stretch Wrap 3680mm</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -6020,11 +6238,11 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
-    <row r="54" outlineLevel="1" s="8">
+    <row r="54" outlineLevel="2" s="8">
       <c r="A54" t="inlineStr">
         <is>
           <t>SO</t>
@@ -6038,38 +6256,38 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1SJT.145.15LBB_Partial</t>
+          <t>Pack_Pad_19_3680</t>
         </is>
       </c>
       <c r="F54" t="n">
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>1.999999999999993</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
-        <v>1.999999999999993</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J54" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K54" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L54" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BX1500</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>5/8" Starter J-Track 12 feet (Premium Light Bamboo)</t>
+          <t>PAD - 19" X 144" DW ECT #3 WHITE 3680mm</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -6129,7 +6347,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
@@ -6147,38 +6365,38 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1TJT.145.15LBB_Partial</t>
+          <t>Pack_Pad_13_3680</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>488.9499999999999</v>
+        <v>522.9224999999998</v>
       </c>
       <c r="J55" t="n">
-        <v>476.25</v>
+        <v>304.8</v>
       </c>
       <c r="K55" t="n">
-        <v>7340</v>
+        <v>3680</v>
       </c>
       <c r="L55" t="n">
-        <v>2401.951224489796</v>
+        <v>352.7235963718821</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BX1500</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>1" Base - 1X1JT / 1X2JT / JT23S - Component 2 12 feet (Premium Light Bamboo)</t>
+          <t>PAD - 13" X 144" DW ECT #3 WHITE 3680mm</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -6238,1097 +6456,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="56" outlineLevel="1" s="8">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1013075</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>2BTBSS.145.15OBL_Partial</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="I56" t="n">
-        <v>488.9499999999999</v>
-      </c>
-      <c r="J56" t="n">
-        <v>476.25</v>
-      </c>
-      <c r="K56" t="n">
-        <v>7340</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2401.951224489796</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Back-to-Back Starter Strip 12 feet (Premium Onyx Black)</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Hamilton County Readiness Center</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>2600 E 276th Street</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>Shipping</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>2025-05-27</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>COMMONCARRIER</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>2025-07-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="57" outlineLevel="1" s="8">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1013075</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>1JTC.145.15LBB_Partial</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1.999999999999993</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1.999999999999993</v>
-      </c>
-      <c r="I57" t="n">
-        <v>488.9499999999999</v>
-      </c>
-      <c r="J57" t="n">
-        <v>476.25</v>
-      </c>
-      <c r="K57" t="n">
-        <v>7340</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2401.951224489796</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>5/8" Cap - 1X1JT / 1TS - Component 1 12 feet (Premium Light Bamboo)</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Hamilton County Readiness Center</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>2600 E 276th Street</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>Shipping</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>2025-05-27</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>COMMONCARRIER</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>2025-07-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="58" outlineLevel="1" s="8">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>1013075</v>
-      </c>
-      <c r="C58" t="n">
-        <v>2</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>1TJT.145.15DBB_Partial</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.9999999999999964</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.9999999999999964</v>
-      </c>
-      <c r="I58" t="n">
-        <v>488.9499999999999</v>
-      </c>
-      <c r="J58" t="n">
-        <v>476.25</v>
-      </c>
-      <c r="K58" t="n">
-        <v>7340</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2401.951224489796</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>1" Base - 1X1JT / 1X2JT / JT23S - Component 2 12 feet (Premium Dark Bamboo)</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Hamilton County Readiness Center</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>2600 E 276th Street</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>Shipping</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>2025-05-27</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>COMMONCARRIER</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>2025-07-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="59" outlineLevel="1" s="8">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>1013075</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>1JTC.145.15DBB_Partial</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.9999999999999964</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.9999999999999964</v>
-      </c>
-      <c r="I59" t="n">
-        <v>488.9499999999999</v>
-      </c>
-      <c r="J59" t="n">
-        <v>476.25</v>
-      </c>
-      <c r="K59" t="n">
-        <v>7340</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2401.951224489796</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>5/8" Cap - 1X1JT / 1TS - Component 1 12 feet (Premium Dark Bamboo)</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Hamilton County Readiness Center</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>2600 E 276th Street</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>Shipping</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>2025-05-27</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>COMMONCARRIER</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>2025-07-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="60" outlineLevel="2" s="8">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1013075</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Pack_Angle</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" t="n">
-        <v>8</v>
-      </c>
-      <c r="H60" t="n">
-        <v>8</v>
-      </c>
-      <c r="I60" t="n">
-        <v>488.9499999999999</v>
-      </c>
-      <c r="J60" t="n">
-        <v>476.25</v>
-      </c>
-      <c r="K60" t="n">
-        <v>7340</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2401.951224489796</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>BOX8</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>PRINTED ANGLEBOARD 7340mm</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Hamilton County Readiness Center</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>2600 E 276th Street</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>Shipping</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>2025-05-27</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>COMMONCARRIER</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>2025-07-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="61" outlineLevel="2" s="8">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>1013075</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Pack_1x4x19_Dun</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" t="n">
-        <v>4</v>
-      </c>
-      <c r="H61" t="n">
-        <v>4</v>
-      </c>
-      <c r="I61" t="n">
-        <v>488.9499999999999</v>
-      </c>
-      <c r="J61" t="n">
-        <v>476.25</v>
-      </c>
-      <c r="K61" t="n">
-        <v>7340</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2401.951224489796</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>BOX8</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>1" X 4" X 19" DUNNAGE 7340mm</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Hamilton County Readiness Center</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>2600 E 276th Street</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>Shipping</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>2025-05-27</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>COMMONCARRIER</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>2025-07-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="62" outlineLevel="2" s="8">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>1013075</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Pack_2x3x19_Dun</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" t="n">
-        <v>4</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
-      </c>
-      <c r="I62" t="n">
-        <v>488.9499999999999</v>
-      </c>
-      <c r="J62" t="n">
-        <v>476.25</v>
-      </c>
-      <c r="K62" t="n">
-        <v>7340</v>
-      </c>
-      <c r="L62" t="n">
-        <v>2401.951224489796</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>BOX8</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>2" X 3" X 19" DUNNAGE 7340mm</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Hamilton County Readiness Center</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>2600 E 276th Street</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>Shipping</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>2025-05-27</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="AA62" t="inlineStr">
-        <is>
-          <t>COMMONCARRIER</t>
-        </is>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>2025-07-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="63" outlineLevel="2" s="8">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>1013075</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Pack_Sub_Bundl_Wrp_7340</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" t="n">
-        <v>4</v>
-      </c>
-      <c r="H63" t="n">
-        <v>4</v>
-      </c>
-      <c r="I63" t="n">
-        <v>488.9499999999999</v>
-      </c>
-      <c r="J63" t="n">
-        <v>476.25</v>
-      </c>
-      <c r="K63" t="n">
-        <v>7340</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2401.951224489796</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>BOX8</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Sub-Bundle Wrap - Crepe Paper/Stretch Film 7340mm</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Hamilton County Readiness Center</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>2600 E 276th Street</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>Shipping</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>2025-05-27</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>COMMONCARRIER</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>2025-07-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="64" outlineLevel="2" s="8">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1013075</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Pack_Mst_Bundl_Wrp_7340</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" t="n">
-        <v>4</v>
-      </c>
-      <c r="H64" t="n">
-        <v>4</v>
-      </c>
-      <c r="I64" t="n">
-        <v>488.9499999999999</v>
-      </c>
-      <c r="J64" t="n">
-        <v>476.25</v>
-      </c>
-      <c r="K64" t="n">
-        <v>7340</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2401.951224489796</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>BOX8</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Master Bundle - Stretch Wrap 7340mm</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Hamilton County Readiness Center</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>2600 E 276th Street</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>Shipping</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>2025-05-27</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="AA64" t="inlineStr">
-        <is>
-          <t>COMMONCARRIER</t>
-        </is>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>2025-07-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="65" outlineLevel="1" s="8">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>SO</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1013075</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Pack_Pad_19_7340</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>2</v>
-      </c>
-      <c r="G65" t="n">
-        <v>4</v>
-      </c>
-      <c r="H65" t="n">
-        <v>8</v>
-      </c>
-      <c r="I65" t="n">
-        <v>488.9499999999999</v>
-      </c>
-      <c r="J65" t="n">
-        <v>476.25</v>
-      </c>
-      <c r="K65" t="n">
-        <v>7340</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2401.951224489796</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>BOX8</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>PAD - 19" X 144" DW ECT #3 WHITE 7340mm</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Hamilton County Readiness Center</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>2600 E 276th Street</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Atlanta</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>Shipping</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>2025-05-27</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>2025-05-28</t>
-        </is>
-      </c>
-      <c r="AA65" t="inlineStr">
-        <is>
-          <t>COMMONCARRIER</t>
-        </is>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>2025-06-05</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>2025-07-22</t>
+          <t>2025-07-23</t>
         </is>
       </c>
     </row>
